--- a/AdvisorManagement/Upload/CVHT_Phancong_2022-2023 (2).xlsx
+++ b/AdvisorManagement/Upload/CVHT_Phancong_2022-2023 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28CAF9-2328-4DD4-A89A-DE6C8A49D8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889AB14B-CD3B-4187-B953-4097E84F2FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>TRƯỜNG ĐẠI HỌC VĂN LANG</t>
   </si>
@@ -49,25 +49,6 @@
     <t>MÃ LỚP</t>
   </si>
   <si>
-    <t>Nguyễn Hạ</t>
-  </si>
-  <si>
-    <t>ha.197pm09438@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>K25-Test
-K26-Test</t>
-  </si>
-  <si>
-    <t>Châu Ngọc Hoàng Yến</t>
-  </si>
-  <si>
-    <t>yen.2273401151733@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>K25-IT</t>
-  </si>
-  <si>
     <t>TP.HCM, ngày   tháng   năm 2023</t>
   </si>
   <si>
@@ -77,20 +58,50 @@
     <t>Trợ lý CTSV</t>
   </si>
   <si>
-    <t>K25-Test 
-K26-Test</t>
-  </si>
-  <si>
-    <t>K25-Test, K2900
-K2908
-K27-Test, K28-Test</t>
+    <t>HÀ ĐỒNG HƯNG</t>
+  </si>
+  <si>
+    <t>hung.hd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>71K28CNTT25,26,27,28</t>
+  </si>
+  <si>
+    <t>HUỲNH THANH TUẤN</t>
+  </si>
+  <si>
+    <t>tuan.ht@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>71K27CNTT07,22,23,24</t>
+  </si>
+  <si>
+    <t>hung.hd_cntt</t>
+  </si>
+  <si>
+    <t>tuan.ht</t>
+  </si>
+  <si>
+    <t>NGUYỄN THẾ QUANG</t>
+  </si>
+  <si>
+    <t>quang.nt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>K25T-PM1,2</t>
+  </si>
+  <si>
+    <t>quang.nt_cntt</t>
+  </si>
+  <si>
+    <t>K25T-PM1,2,5,6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -118,16 +129,49 @@
       <sz val="13"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,11 +194,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,15 +282,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{85CDD801-98FB-41AB-B42C-22DE3FD2F5C7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,7 +628,7 @@
   <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -526,7 +636,7 @@
     <col min="1" max="1" width="6.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
@@ -620,96 +730,87 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="50.4">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" spans="1:7">
+      <c r="A6" s="14">
+        <v>11</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="33.6">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33.6">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="33.6">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.6">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="25.8" customHeight="1">
       <c r="C12" s="7"/>
       <c r="D12" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
@@ -717,13 +818,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
@@ -741,6 +842,12 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{EDCF8A42-A937-4023-817C-6C068161EE6C}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{5CB6FF40-9349-41FF-A4DA-A95A42D28F02}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{C3DFB2CC-42F7-4F1E-83B1-70C929589C95}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{CB2DC968-B366-4FCC-BDDD-9E2F7E09B094}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>